--- a/Lists/Voi_Prod.xlsx
+++ b/Lists/Voi_Prod.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
   <si>
     <t>musapu</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>pl</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -749,11 +752,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +765,7 @@
     <col min="6" max="6" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -787,8 +790,11 @@
       <c r="H1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -813,8 +819,12 @@
       <c r="H2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f>IF(H2="sg","singular","plural")</f>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -839,8 +849,12 @@
       <c r="H3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I31" si="0">IF(H3="sg","singular","plural")</f>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -865,8 +879,12 @@
       <c r="H4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -891,8 +909,12 @@
       <c r="H5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -917,8 +939,12 @@
       <c r="H6" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -943,8 +969,12 @@
       <c r="H7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -969,8 +999,12 @@
       <c r="H8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -995,8 +1029,12 @@
       <c r="H9" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1021,8 +1059,12 @@
       <c r="H10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1047,8 +1089,12 @@
       <c r="H11" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1073,8 +1119,12 @@
       <c r="H12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1099,8 +1149,12 @@
       <c r="H13" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1125,8 +1179,12 @@
       <c r="H14" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1151,8 +1209,12 @@
       <c r="H15" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -1177,8 +1239,12 @@
       <c r="H16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1203,8 +1269,12 @@
       <c r="H17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1229,8 +1299,12 @@
       <c r="H18" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1255,8 +1329,12 @@
       <c r="H19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1281,8 +1359,12 @@
       <c r="H20" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1307,8 +1389,12 @@
       <c r="H21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1333,8 +1419,12 @@
       <c r="H22" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1359,8 +1449,12 @@
       <c r="H23" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1385,8 +1479,12 @@
       <c r="H24" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1411,8 +1509,12 @@
       <c r="H25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1437,8 +1539,12 @@
       <c r="H26" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -1463,8 +1569,12 @@
       <c r="H27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -1489,8 +1599,12 @@
       <c r="H28" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -1515,8 +1629,12 @@
       <c r="H29" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1541,8 +1659,12 @@
       <c r="H30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>singular</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1566,6 +1688,10 @@
       </c>
       <c r="H31" t="s">
         <v>135</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>plural</v>
       </c>
     </row>
   </sheetData>

--- a/Lists/Voi_Prod.xlsx
+++ b/Lists/Voi_Prod.xlsx
@@ -756,7 +756,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,8 +820,8 @@
         <v>134</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(H2="sg","singular","plural")</f>
-        <v>singular</v>
+        <f>IF(H2="singular","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,8 +850,8 @@
         <v>134</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I31" si="0">IF(H3="sg","singular","plural")</f>
-        <v>singular</v>
+        <f t="shared" ref="I3:J31" si="0">IF(H3="singular","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,7 +881,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,7 +911,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>singular</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>plural</v>
+        <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
   </sheetData>

--- a/Lists/Voi_Prod.xlsx
+++ b/Lists/Voi_Prod.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\ortexp\Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julianrl_adm\Experiment_Orthography\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -756,16 +756,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>122</v>
       </c>
@@ -794,7 +794,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -820,11 +820,11 @@
         <v>134</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(H2="singular","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>IF(H2="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -850,11 +850,11 @@
         <v>134</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:J31" si="0">IF(H3="singular","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I3:I31" si="0">IF(H3="sg","Write the singular form on your keyboard - then press enter","Write the plural form on your keyboard - then press enter")</f>
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -884,7 +884,7 @@
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -911,10 +911,10 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -944,7 +944,7 @@
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -974,7 +974,7 @@
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1001,10 +1001,10 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -1031,10 +1031,10 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1061,10 +1061,10 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1091,10 +1091,10 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1121,10 +1121,10 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1181,10 +1181,10 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -1241,10 +1241,10 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -1271,10 +1271,10 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1301,10 +1301,10 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1331,10 +1331,10 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1391,10 +1391,10 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -1421,10 +1421,10 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1451,10 +1451,10 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -1481,10 +1481,10 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>84</v>
       </c>
@@ -1511,10 +1511,10 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>Write the plural form on your keyboard - then press enter</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -1571,10 +1571,10 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -1601,10 +1601,10 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -1631,10 +1631,10 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1661,10 +1661,10 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>Write the plural form on your keyboard - then press enter</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>Write the singular form on your keyboard - then press enter</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>113</v>
       </c>
